--- a/data/trans_orig/DC_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>166559</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>144788</v>
+        <v>144444</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>188266</v>
+        <v>190212</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3339602754582447</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2903081243675228</v>
+        <v>0.2896183775426857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3774839533356376</v>
+        <v>0.381384903486788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>468</v>
@@ -762,19 +762,19 @@
         <v>306619</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>285307</v>
+        <v>284099</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328969</v>
+        <v>329868</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4917075773682639</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4575306364818838</v>
+        <v>0.4555934137515673</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5275484376247311</v>
+        <v>0.5289900746227907</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>647</v>
@@ -783,19 +783,19 @@
         <v>473178</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>439808</v>
+        <v>444838</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>503292</v>
+        <v>507626</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4216074163970647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3918743211405071</v>
+        <v>0.3963560719045467</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4484388397565617</v>
+        <v>0.4523006518958964</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>332180</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>310473</v>
+        <v>308527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>353951</v>
+        <v>354295</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6660397245417553</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6225160466643627</v>
+        <v>0.6186150965132122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7096918756324778</v>
+        <v>0.7103816224573144</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>393</v>
@@ -833,19 +833,19 @@
         <v>316961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294611</v>
+        <v>293712</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>338273</v>
+        <v>339481</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5082924226317359</v>
+        <v>0.508292422631736</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.472451562375269</v>
+        <v>0.4710099253772093</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5424693635181163</v>
+        <v>0.5444065862484325</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>669</v>
@@ -854,19 +854,19 @@
         <v>649142</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>619028</v>
+        <v>614694</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>682512</v>
+        <v>677482</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5783925836029353</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5515611602434389</v>
+        <v>0.5476993481041035</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6081256788594931</v>
+        <v>0.6036439280954533</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>220934</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>194099</v>
+        <v>192412</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>246530</v>
+        <v>246243</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2301066298836799</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2021577738322769</v>
+        <v>0.2004000694669624</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2567651775398685</v>
+        <v>0.2564661505497148</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>705</v>
@@ -979,19 +979,19 @@
         <v>439597</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>411320</v>
+        <v>412317</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>468734</v>
+        <v>468189</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3939573949142791</v>
+        <v>0.393957394914279</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3686161959545533</v>
+        <v>0.3695092353073526</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4200695440627353</v>
+        <v>0.4195808725427813</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>965</v>
@@ -1000,19 +1000,19 @@
         <v>660531</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>623012</v>
+        <v>619526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>697307</v>
+        <v>698684</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3181769561278717</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3001039063484343</v>
+        <v>0.2984249713282185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3358921570412477</v>
+        <v>0.3365550287141243</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>739203</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>713607</v>
+        <v>713894</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>766038</v>
+        <v>767725</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7698933701163201</v>
+        <v>0.7698933701163203</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7432348224601316</v>
+        <v>0.7435338494502854</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7978422261677232</v>
+        <v>0.7995999305330377</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>902</v>
@@ -1050,19 +1050,19 @@
         <v>676252</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>647115</v>
+        <v>647660</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>704529</v>
+        <v>703532</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6060426050857209</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5799304559372644</v>
+        <v>0.5804191274572187</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6313838040454466</v>
+        <v>0.6304907646926473</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1552</v>
@@ -1071,19 +1071,19 @@
         <v>1415455</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1378679</v>
+        <v>1377302</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1452974</v>
+        <v>1456460</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6818230438721283</v>
+        <v>0.6818230438721282</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6641078429587524</v>
+        <v>0.6634449712858758</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6998960936515656</v>
+        <v>0.7015750286717816</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>194533</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171319</v>
+        <v>171373</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>223063</v>
+        <v>223250</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1858933487733503</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1637104034735712</v>
+        <v>0.1637616199916634</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2131552880305299</v>
+        <v>0.2133346822186505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>583</v>
@@ -1196,19 +1196,19 @@
         <v>380200</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>353878</v>
+        <v>354218</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>407248</v>
+        <v>409372</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3629098636836685</v>
+        <v>0.3629098636836686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3377850647689271</v>
+        <v>0.3381099665327255</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3887283856020409</v>
+        <v>0.390755637295131</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>801</v>
@@ -1217,19 +1217,19 @@
         <v>574733</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>531637</v>
+        <v>534339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>613321</v>
+        <v>612171</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2744507333902618</v>
+        <v>0.2744507333902619</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2538711297519679</v>
+        <v>0.2551614509377235</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2928777611522089</v>
+        <v>0.2923284964105727</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>851946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>823416</v>
+        <v>823229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>875160</v>
+        <v>875106</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8141066512266496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7868447119694701</v>
+        <v>0.7866653177813494</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8362895965264288</v>
+        <v>0.8362383800083366</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>933</v>
@@ -1267,19 +1267,19 @@
         <v>667442</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>640394</v>
+        <v>638270</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>693764</v>
+        <v>693424</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6370901363163315</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6112716143979593</v>
+        <v>0.6092443627048691</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6622149352310731</v>
+        <v>0.6618900334672748</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1744</v>
@@ -1288,19 +1288,19 @@
         <v>1519388</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1480800</v>
+        <v>1481950</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1562484</v>
+        <v>1559782</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7255492666097381</v>
+        <v>0.7255492666097382</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7071222388477909</v>
+        <v>0.7076715035894272</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7461288702480318</v>
+        <v>0.7448385490622765</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>218068</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>189272</v>
+        <v>192385</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>243215</v>
+        <v>245296</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2234467889824867</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1939402814252955</v>
+        <v>0.1971298609161536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2492141117616624</v>
+        <v>0.2513462684681158</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>540</v>
@@ -1413,19 +1413,19 @@
         <v>371777</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>345186</v>
+        <v>345921</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>400866</v>
+        <v>398727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4083913354167992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3791819987421985</v>
+        <v>0.3799892579945933</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.440344938415283</v>
+        <v>0.4379954973525253</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>775</v>
@@ -1434,19 +1434,19 @@
         <v>589845</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>550328</v>
+        <v>550612</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>635483</v>
+        <v>627074</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3127038772963913</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.291754129374686</v>
+        <v>0.2919048040930658</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3368984293991095</v>
+        <v>0.3324405647661828</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>757861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>732714</v>
+        <v>730633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>786657</v>
+        <v>783544</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7765532110175133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7507858882383375</v>
+        <v>0.7486537315318841</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8060597185747044</v>
+        <v>0.8028701390838463</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>784</v>
@@ -1484,19 +1484,19 @@
         <v>538568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>509479</v>
+        <v>511618</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>565159</v>
+        <v>564424</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5916086645832007</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.559655061584717</v>
+        <v>0.5620045026474746</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6208180012578015</v>
+        <v>0.6200107420054067</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1496</v>
@@ -1505,19 +1505,19 @@
         <v>1296429</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1250791</v>
+        <v>1259200</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1335946</v>
+        <v>1335662</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6872961227036088</v>
+        <v>0.6872961227036087</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6631015706008906</v>
+        <v>0.6675594352338171</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7082458706253141</v>
+        <v>0.7080951959069338</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>800095</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>751486</v>
+        <v>747523</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>848985</v>
+        <v>855146</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2298274475022441</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2158645110946449</v>
+        <v>0.2147261544652189</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2438713281035627</v>
+        <v>0.2456408839095881</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2296</v>
@@ -1630,19 +1630,19 @@
         <v>1498193</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1444600</v>
+        <v>1446663</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1547992</v>
+        <v>1549946</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4051999125223101</v>
+        <v>0.4051999125223102</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3907053937464157</v>
+        <v>0.3912633050148291</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4186686704480989</v>
+        <v>0.4191970064740739</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3188</v>
@@ -1651,19 +1651,19 @@
         <v>2298288</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2215209</v>
+        <v>2224664</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2361572</v>
+        <v>2378908</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.320153681058714</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3085807566623971</v>
+        <v>0.3098978991602948</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3289692784689477</v>
+        <v>0.3313842500704275</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2681189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2632299</v>
+        <v>2626138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2729798</v>
+        <v>2733761</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.770172552497756</v>
+        <v>0.7701725524977558</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7561286718964371</v>
+        <v>0.7543591160904117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.784135488905355</v>
+        <v>0.7852738455347811</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3012</v>
@@ -1701,19 +1701,19 @@
         <v>2199223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2149424</v>
+        <v>2147470</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2252816</v>
+        <v>2250753</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5948000874776898</v>
+        <v>0.59480008747769</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5813313295519011</v>
+        <v>0.5808029935259261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6092946062535843</v>
+        <v>0.6087366949851708</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5461</v>
@@ -1722,19 +1722,19 @@
         <v>4880413</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4817129</v>
+        <v>4799793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4963492</v>
+        <v>4954037</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.679846318941286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6710307215310523</v>
+        <v>0.6686157499295725</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6914192433376026</v>
+        <v>0.6901021008397052</v>
       </c>
     </row>
     <row r="18">
